--- a/biology/Médecine/Ministère_de_la_Santé_(Luxembourg)/Ministère_de_la_Santé_(Luxembourg).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_(Luxembourg)/Ministère_de_la_Santé_(Luxembourg).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_(Luxembourg)</t>
+          <t>Ministère_de_la_Santé_(Luxembourg)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Au Grand-Duché de Luxembourg, le ministère de la Santé prépare et met en œuvre la politique du Gouvernement dans les domaines de la santé publique et de l’organisation du système de santé sur base des valeurs fondamentales que sont l'universalité, l'accès à des soins de qualité, l'équité et la solidarité de manière à garantir un système de santé moderne, efficace, durable sur le plan financier et capable de s'adapter aux besoins en question tout en garantissant à tous un accès équitable à des services de santé de qualité.
